--- a/mySampleSiteTables.xlsx
+++ b/mySampleSiteTables.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C64DFC-A3B8-4005-B658-F2D99056A05B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomaej\Desktop\Projects\mySampleSite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF2AA5-C109-4273-8B0C-F79F88299A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22500" yWindow="1770" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>LEAGUE STANDINGS</t>
   </si>
@@ -79,9 +83,6 @@
     <t>Week 7</t>
   </si>
   <si>
-    <t>Week 8</t>
-  </si>
-  <si>
     <t>Team 1</t>
   </si>
   <si>
@@ -106,14 +107,23 @@
     <t>Team 7</t>
   </si>
   <si>
-    <t>Team 8</t>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>per 2some handicap power rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +135,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,10 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -161,6 +176,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -184,13 +206,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -236,13 +258,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -291,13 +313,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -346,13 +368,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -401,13 +423,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -456,13 +478,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -511,13 +533,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -566,13 +588,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -621,13 +643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -676,13 +698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -731,13 +753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1084,31 +1106,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23:P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -1122,314 +1145,410 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="4" t="s">
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="M5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="V5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="O16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="3" t="s">
+    </row>
+    <row r="20" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="N16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="14:16">
-      <c r="N17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="14:16">
-      <c r="N18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="14:16">
-      <c r="N19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="14:16">
-      <c r="N20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="14:16">
-      <c r="N21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="14:16">
-      <c r="N22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="14:16">
-      <c r="N23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="Q22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="L1:Z1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="M1:Z1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
